--- a/NBlog/resource/document/数据字典.xlsx
+++ b/NBlog/resource/document/数据字典.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
   <si>
     <t>Table Name</t>
   </si>
@@ -242,15 +242,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户电子邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -262,15 +290,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
+    <t>用户联系电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属行业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -278,35 +326,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员/普通用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动/注销/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户电子邮箱</t>
+    <t>UserName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserPassword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserEmail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserMobilephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCareer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserIndustry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecentStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -315,98 +399,6 @@
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户联系电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_mobilephone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>居住地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属行业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recent_status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员/普通用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动/注销/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_career</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_industry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,13 +438,6 @@
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -581,15 +566,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -598,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,7 +608,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -638,10 +620,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -961,7 +943,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -973,377 +955,373 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="27">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="14">
+        <v>40</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="14">
+        <v>40</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="G4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="15">
-        <v>20</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="E5" s="14">
+        <v>40</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="G5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="15" t="s">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="15">
+      <c r="D6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="14">
         <v>40</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="14">
+        <v>80</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="14">
+        <v>40</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="14">
+        <v>40</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="14">
+        <v>40</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="D12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="14">
         <v>40</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="15">
-        <v>40</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="F12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="15">
-        <v>80</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="15">
-        <v>40</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="15">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="15">
-        <v>40</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="15">
-        <v>40</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="15">
-        <v>10</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="15">
-        <v>40</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="15">
-        <v>11</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1365,333 +1343,333 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="42.625" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="16.625" style="5"/>
+    <col min="1" max="2" width="20.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="42.625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="16.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" s="6" customFormat="1">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" s="5" customFormat="1">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:5" s="5" customFormat="1">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:5" s="5" customFormat="1">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:5" s="5" customFormat="1">
+      <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:5" s="5" customFormat="1">
+      <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>0</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="108">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>10</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>0</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="13" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="13" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="12" t="s">
         <v>55</v>
       </c>
     </row>

--- a/NBlog/resource/document/数据字典.xlsx
+++ b/NBlog/resource/document/数据字典.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>外键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>允许空</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,14 +139,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员/普通用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -318,11 +306,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员 -0
+普通用户 -1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyyMMddHHmmss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -399,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -411,10 +439,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -722,7 +753,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -734,19 +765,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="27">
       <c r="A2" s="4" t="s">
@@ -771,16 +802,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -788,24 +819,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3">
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -815,26 +848,26 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="3">
         <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="I4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -844,30 +877,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3">
         <v>64</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -875,26 +906,24 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="3">
         <v>64</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -904,26 +933,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -933,26 +960,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3">
         <v>128</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -962,26 +987,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3">
         <v>64</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -991,59 +1014,57 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3">
         <v>64</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="26.25" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1051,27 +1072,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14</v>
+      </c>
       <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1088,7 +1111,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="13.5"/>
@@ -1106,19 +1129,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5">
-      <c r="A1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="A1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
@@ -1143,16 +1166,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1160,26 +1183,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="3">
         <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="I3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1189,30 +1214,32 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
         <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1220,26 +1247,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3">
         <v>64</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1249,24 +1278,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="E6" s="3">
+        <v>14</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1285,7 +1316,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1295,19 +1326,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5">
-      <c r="A1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="27">
       <c r="A2" s="4" t="s">
@@ -1332,16 +1363,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1349,24 +1380,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1376,26 +1407,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
         <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1405,26 +1436,26 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3">
         <v>64</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1434,26 +1465,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1472,7 +1503,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1482,19 +1513,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5">
-      <c r="A1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="A1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="27">
       <c r="A2" s="4" t="s">
@@ -1519,16 +1550,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1536,24 +1567,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3">
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1563,26 +1594,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
         <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1592,26 +1623,26 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3">
         <v>64</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1621,26 +1652,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1649,25 +1680,27 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="6" t="s">
-        <v>15</v>
+      <c r="I7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>

--- a/NBlog/resource/document/数据字典.xlsx
+++ b/NBlog/resource/document/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="用户基本信息表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -291,10 +291,6 @@
   </si>
   <si>
     <t>登录浏览器类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginBrowserType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -355,6 +351,42 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginBrowser</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -752,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -802,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>7</v>
@@ -822,7 +854,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>34</v>
@@ -864,7 +896,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>10</v>
@@ -1064,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1078,7 +1110,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3">
         <v>14</v>
@@ -1093,7 +1125,7 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1143,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="13.5"/>
@@ -1166,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>7</v>
@@ -1201,7 +1233,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>10</v>
@@ -1232,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>16</v>
@@ -1265,7 +1297,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>13</v>
@@ -1297,7 +1329,7 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1313,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1363,7 +1395,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>7</v>
@@ -1465,29 +1497,58 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1502,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1550,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>7</v>
@@ -1613,7 +1674,7 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1629,7 +1690,7 @@
         <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3">
         <v>64</v>
@@ -1642,7 +1703,7 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1652,16 +1713,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
@@ -1671,7 +1732,7 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1681,10 +1742,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>37</v>
@@ -1693,14 +1754,14 @@
         <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>

--- a/NBlog/resource/document/数据字典.xlsx
+++ b/NBlog/resource/document/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="3645"/>
   </bookViews>
   <sheets>
     <sheet name="用户基本信息表" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="菜单表" sheetId="3" r:id="rId3"/>
     <sheet name="登录表" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -314,11 +315,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>管理员 -0
-普通用户 -1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>char</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -387,6 +383,11 @@
   </si>
   <si>
     <t>LoginBrowser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员 -1
+普通用户 -0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -784,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -834,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>7</v>
@@ -896,7 +897,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>10</v>
@@ -1093,10 +1094,10 @@
         <v>31</v>
       </c>
       <c r="J11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1110,7 +1111,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3">
         <v>14</v>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>7</v>
@@ -1233,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>10</v>
@@ -1264,7 +1265,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>16</v>
@@ -1297,7 +1298,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>13</v>
@@ -1329,7 +1330,7 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1395,7 +1396,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>7</v>
@@ -1497,26 +1498,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E6" s="3">
         <v>128</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1611,7 +1612,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>7</v>
@@ -1674,7 +1675,7 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1703,7 +1704,7 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1713,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>68</v>
@@ -1732,7 +1733,7 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
